--- a/biology/Biochimie/Macroélément/Macroélément.xlsx
+++ b/biology/Biochimie/Macroélément/Macroélément.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Macro%C3%A9l%C3%A9ment</t>
+          <t>Macroélément</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un macroélément ou macro-élément est un élément chimique qui, chez un humain de 70 kilogrammes, représente plus de 5 grammes, et nécessite un apport journalier supérieur à 50 mg. [réf. nécessaire]
 Chez les végétaux, ce sont des éléments nutritifs nécessaires en grandes quantités à leur croissance et leur développement. Il s'agit d'agents de construction que l’on trouve dans les solutions dans le sol sous forme d’ions surtout sous formes conjuguées (NH4+, NO2−). Les macroéléments sont surtout, mais pas exclusivement, impliqués dans la structure des molécules, ce qui explique en partie la nécessité d’apports importants. Leur fraction massique ou teneur est inférieure à 0,1 % dans la matière sèche. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Macro%C3%A9l%C3%A9ment</t>
+          <t>Macroélément</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des macroéléments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pour un homme adulte de 70 kg, en grammes :</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Macro%C3%A9l%C3%A9ment</t>
+          <t>Macroélément</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Éléments nutritifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
